--- a/Developement/Developement.xlsx
+++ b/Developement/Developement.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.kuang\Documents\Work\01. Project\Startup\payequity\Developement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D59791-3DDC-4CE6-A968-FF9F16292D22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C3843A-1091-4C09-AA16-14A26332C68E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Finish click</t>
   </si>
@@ -79,6 +87,15 @@
   </si>
   <si>
     <t>Add baseline selection</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Rewrite intro</t>
+  </si>
+  <si>
+    <t>Update data template - instruction, what happen if no data…</t>
   </si>
 </sst>
 </file>
@@ -396,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,11 +439,17 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -440,62 +463,72 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Developement/Developement.xlsx
+++ b/Developement/Developement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.kuang\Documents\Work\01. Project\Startup\payequity\Developement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C3843A-1091-4C09-AA16-14A26332C68E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BDFFAF-319C-4320-9B73-067828D2D731}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Finish click</t>
   </si>
@@ -416,7 +416,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,6 +455,9 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">

--- a/Developement/Developement.xlsx
+++ b/Developement/Developement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.kuang\Documents\Work\01. Project\Startup\payequity\Developement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BDFFAF-319C-4320-9B73-067828D2D731}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58185EBB-9CDC-4A1A-AF4B-71CCF4EF7A4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Finish click</t>
   </si>
@@ -96,6 +96,18 @@
   </si>
   <si>
     <t>Update data template - instruction, what happen if no data…</t>
+  </si>
+  <si>
+    <t>cornor case - Update if no ethnicity is present</t>
+  </si>
+  <si>
+    <t>cornor case - Update if no significant negative gaps</t>
+  </si>
+  <si>
+    <t>cornor case - Update if no negative gaps</t>
+  </si>
+  <si>
+    <t>Add scenario C</t>
   </si>
 </sst>
 </file>
@@ -111,12 +123,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -131,8 +155,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,102 +462,134 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Developement/Developement.xlsx
+++ b/Developement/Developement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.kuang\Documents\Work\01. Project\Startup\payequity\Developement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58185EBB-9CDC-4A1A-AF4B-71CCF4EF7A4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23901488-0141-43D6-A689-DEE87DF7699E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3060" windowWidth="17280" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Finish click</t>
   </si>
@@ -442,7 +442,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,8 +510,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -530,8 +533,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">

--- a/Developement/Developement.xlsx
+++ b/Developement/Developement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.kuang\Documents\Work\01. Project\Startup\payequity\Developement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23901488-0141-43D6-A689-DEE87DF7699E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DB1AB4-4778-410B-8398-D3115CD990EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3060" windowWidth="17280" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Finish click</t>
   </si>
@@ -442,7 +442,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,8 +518,11 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">

--- a/Developement/Developement.xlsx
+++ b/Developement/Developement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.kuang\Documents\Work\01. Project\Startup\payequity\Developement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DB1AB4-4778-410B-8398-D3115CD990EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBFB451-EB1E-436B-A071-D4E3CCFDFAE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>Finish click</t>
   </si>
@@ -442,7 +442,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,13 +526,19 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -549,10 +555,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Developement/Developement.xlsx
+++ b/Developement/Developement.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.kuang\Documents\Work\01. Project\Startup\payequity\Developement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBFB451-EB1E-436B-A071-D4E3CCFDFAE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E77008-EFF0-4377-B14D-9A7D3E6E67C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="79">
   <si>
     <t>Finish click</t>
   </si>
@@ -108,13 +110,175 @@
   </si>
   <si>
     <t>Add scenario C</t>
+  </si>
+  <si>
+    <t>Pay Insight</t>
+  </si>
+  <si>
+    <t>Pay</t>
+  </si>
+  <si>
+    <t>For every 1 year of service</t>
+  </si>
+  <si>
+    <t>For every 5 direct reports</t>
+  </si>
+  <si>
+    <t>Promotion: Yes vs. No</t>
+  </si>
+  <si>
+    <t>Country: GA vs CA</t>
+  </si>
+  <si>
+    <t>Country: NY vs CA</t>
+  </si>
+  <si>
+    <t>Function: Engineering vs HR</t>
+  </si>
+  <si>
+    <t>Function: Marketing vs HR</t>
+  </si>
+  <si>
+    <t>Function: Sales vs HR</t>
+  </si>
+  <si>
+    <t>Function: Finance vs HR</t>
+  </si>
+  <si>
+    <t>Pay Arena</t>
+  </si>
+  <si>
+    <t>Susan Wong</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Department = IT</t>
+  </si>
+  <si>
+    <t>Manager = Yes</t>
+  </si>
+  <si>
+    <t>Performance = 'Good'</t>
+  </si>
+  <si>
+    <t>High Potential = 'No'</t>
+  </si>
+  <si>
+    <t>Grade = 'Tech 5'</t>
+  </si>
+  <si>
+    <t>Function = 'HR'</t>
+  </si>
+  <si>
+    <t>Susan's Pay</t>
+  </si>
+  <si>
+    <t>100K</t>
+  </si>
+  <si>
+    <t>200K</t>
+  </si>
+  <si>
+    <t>+30K</t>
+  </si>
+  <si>
+    <t>+40K</t>
+  </si>
+  <si>
+    <t>-50K</t>
+  </si>
+  <si>
+    <t>-20K</t>
+  </si>
+  <si>
+    <t>90K</t>
+  </si>
+  <si>
+    <t>Susan Wong vs David Anderson</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Years of Service</t>
+  </si>
+  <si>
+    <t>Num of direct report</t>
+  </si>
+  <si>
+    <t>Promotion</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>High Potential</t>
+  </si>
+  <si>
+    <t>Full time</t>
+  </si>
+  <si>
+    <t>Other Variance</t>
+  </si>
+  <si>
+    <t>Compensation Grade</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>Overall Company</t>
+  </si>
+  <si>
+    <t>Unexplain Variance</t>
+  </si>
+  <si>
+    <t>-10K</t>
+  </si>
+  <si>
+    <t>Susan Wong Vs David Anderson</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Employee: Susan Smith</t>
+  </si>
+  <si>
+    <t>Gender Bias = 'Female'</t>
+  </si>
+  <si>
+    <t>Pay Explainer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,8 +286,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,6 +334,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -152,16 +350,60 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="135"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="135"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="135"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -441,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,4 +853,838 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F5824C-B3AB-466F-A629-A6CA42409B08}">
+  <dimension ref="A1:Y19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="I2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="5"/>
+      <c r="P3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" s="12"/>
+      <c r="V3" s="5"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="5"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5" s="5"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="5"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="5"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="V7" s="5"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4">
+        <v>-0.15</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="12"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="12"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="12"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="12"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="9"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="9"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4">
+        <v>-0.01</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="F12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="9"/>
+      <c r="Q12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R12" s="11"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="9"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="4">
+        <v>-0.09</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="9"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="9"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="L14" s="9"/>
+      <c r="Q14" s="1"/>
+      <c r="W14" s="9"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F15" s="1"/>
+      <c r="L15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q15" s="1"/>
+      <c r="W15" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F16" s="1"/>
+      <c r="M16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q16" s="1"/>
+      <c r="X16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y16" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="5:25" x14ac:dyDescent="0.3">
+      <c r="F17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="Y17" s="1"/>
+    </row>
+    <row r="18" spans="5:25" x14ac:dyDescent="0.3">
+      <c r="F18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="Y18" s="1"/>
+    </row>
+    <row r="19" spans="5:25" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="E19" s="7"/>
+      <c r="F19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="W19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="X19" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y19" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DC1271C2-021C-4D27-85D3-9BC3CC620C9E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DC1271C2-021C-4D27-85D3-9BC3CC620C9E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6CDAFD-EE4B-443B-8E12-CACA0426A1AE}">
+  <dimension ref="A1:R19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="9.88671875" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" customWidth="1"/>
+    <col min="18" max="18" width="17.5546875" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E2" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="5"/>
+      <c r="M3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="5"/>
+      <c r="Q4" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="5"/>
+      <c r="P5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="5"/>
+      <c r="O6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="R6" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="R7" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="12"/>
+      <c r="O8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="12"/>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="9"/>
+      <c r="O11" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="9"/>
+      <c r="O12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B13" s="13"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="9"/>
+      <c r="O13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="H14" s="9"/>
+      <c r="O14" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="H15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="2:18" s="7" customFormat="1" ht="58.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="17"/>
+      <c r="R19" s="18"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="Q5:Q14">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{809C59E0-6A2C-43F0-A20E-683B02979785}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CA71B58B-F595-4F1C-B896-9DFC79D4C2E9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1FB22E62-C6AF-4215-B124-89DA04CA8AE5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{809C59E0-6A2C-43F0-A20E-683B02979785}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Q5:Q14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CA71B58B-F595-4F1C-B896-9DFC79D4C2E9}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Q4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1FB22E62-C6AF-4215-B124-89DA04CA8AE5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Q1:Q1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>